--- a/PaperRevisionSept2023/MetadataIntegrationTreg.xlsx
+++ b/PaperRevisionSept2023/MetadataIntegrationTreg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simone/Documents/GitHub/SP039_GBMintegration/PaperRevisionSept2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonepuccio/Documents/GitHub/SP039_GBMintegration/PaperRevisionSept2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D201C8-C6F3-9D43-9DE7-83D28F8DA04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D9AE6-690A-734C-B0B4-394937402615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9291073F-D2C9-4C4E-A581-022FD49D0626}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{9291073F-D2C9-4C4E-A581-022FD49D0626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="155">
   <si>
     <t>SampleID</t>
   </si>
@@ -342,18 +342,6 @@
   </si>
   <si>
     <t>31147</t>
-  </si>
-  <si>
-    <t>CNSTM_375</t>
-  </si>
-  <si>
-    <t>GSM5518612</t>
-  </si>
-  <si>
-    <t>Right_Frontal</t>
-  </si>
-  <si>
-    <t>26684</t>
   </si>
   <si>
     <t>CNSTM_379</t>
@@ -925,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4998ED61-C94D-CA46-9591-71405B3977D6}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2447,129 +2435,129 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="E28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" t="s">
         <v>104</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="M28" s="2">
+        <v>28</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M28" s="2">
-        <v>27</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R28" s="3">
-        <v>10783</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="4" t="s">
+      <c r="I29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L29" t="s">
         <v>108</v>
       </c>
       <c r="M29" s="2">
-        <v>28</v>
-      </c>
-      <c r="N29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P29" s="4" t="s">
+      <c r="O29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="R29" s="3">
-        <v>337</v>
+        <v>907</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -2596,10 +2584,10 @@
         <v>112</v>
       </c>
       <c r="M30" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>19</v>
@@ -2611,7 +2599,7 @@
         <v>19</v>
       </c>
       <c r="R30" s="3">
-        <v>907</v>
+        <v>645</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -2625,7 +2613,7 @@
         <v>94</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
@@ -2637,22 +2625,22 @@
         <v>23</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" t="s">
         <v>115</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" t="s">
-        <v>116</v>
-      </c>
       <c r="M31" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>26</v>
@@ -2667,21 +2655,21 @@
         <v>19</v>
       </c>
       <c r="R31" s="3">
-        <v>645</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>19</v>
@@ -2690,10 +2678,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>19</v>
@@ -2708,7 +2696,7 @@
         <v>119</v>
       </c>
       <c r="M32" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>26</v>
@@ -2723,7 +2711,7 @@
         <v>19</v>
       </c>
       <c r="R32" s="3">
-        <v>807</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2746,10 +2734,10 @@
         <v>22</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>19</v>
@@ -2764,7 +2752,7 @@
         <v>123</v>
       </c>
       <c r="M33" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>26</v>
@@ -2779,7 +2767,7 @@
         <v>19</v>
       </c>
       <c r="R33" s="3">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2805,7 +2793,7 @@
         <v>23</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>19</v>
@@ -2816,14 +2804,14 @@
       <c r="K34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L34" t="s">
-        <v>127</v>
+      <c r="L34">
+        <v>3884</v>
       </c>
       <c r="M34" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>19</v>
@@ -2835,15 +2823,15 @@
         <v>19</v>
       </c>
       <c r="R34" s="3">
-        <v>64</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>94</v>
@@ -2861,7 +2849,7 @@
         <v>23</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>19</v>
@@ -2872,14 +2860,14 @@
       <c r="K35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L35">
-        <v>3884</v>
+      <c r="L35" t="s">
+        <v>128</v>
       </c>
       <c r="M35" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>19</v>
@@ -2891,15 +2879,15 @@
         <v>19</v>
       </c>
       <c r="R35" s="3">
-        <v>2084</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>94</v>
@@ -2917,7 +2905,7 @@
         <v>23</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>19</v>
@@ -2929,13 +2917,13 @@
         <v>19</v>
       </c>
       <c r="L36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M36" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>19</v>
@@ -2947,18 +2935,18 @@
         <v>19</v>
       </c>
       <c r="R36" s="3">
-        <v>179</v>
+        <v>873</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>21</v>
@@ -2976,7 +2964,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>19</v>
@@ -2985,16 +2973,16 @@
         <v>19</v>
       </c>
       <c r="L37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M37" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>28</v>
@@ -3003,7 +2991,7 @@
         <v>19</v>
       </c>
       <c r="R37" s="3">
-        <v>873</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -3014,7 +3002,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>21</v>
@@ -3032,7 +3020,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>19</v>
@@ -3041,16 +3029,16 @@
         <v>19</v>
       </c>
       <c r="L38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M38" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>28</v>
@@ -3059,18 +3047,18 @@
         <v>19</v>
       </c>
       <c r="R38" s="3">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>21</v>
@@ -3097,10 +3085,10 @@
         <v>19</v>
       </c>
       <c r="L39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M39" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>19</v>
@@ -3115,21 +3103,21 @@
         <v>19</v>
       </c>
       <c r="R39" s="3">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
@@ -3153,10 +3141,10 @@
         <v>19</v>
       </c>
       <c r="L40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M40" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>19</v>
@@ -3171,18 +3159,18 @@
         <v>19</v>
       </c>
       <c r="R40" s="3">
-        <v>139</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>95</v>
@@ -3209,39 +3197,39 @@
         <v>19</v>
       </c>
       <c r="L41" t="s">
+        <v>143</v>
+      </c>
+      <c r="M41" s="2">
+        <v>41</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" t="s">
         <v>145</v>
       </c>
-      <c r="M41" s="2">
-        <v>40</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R41" s="3">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="C42" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -3264,11 +3252,11 @@
       <c r="K42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L42" t="s">
-        <v>147</v>
+      <c r="L42">
+        <v>4831</v>
       </c>
       <c r="M42" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>19</v>
@@ -3283,18 +3271,18 @@
         <v>19</v>
       </c>
       <c r="R42" s="3">
-        <v>64</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B43" t="s">
-        <v>149</v>
-      </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>21</v>
@@ -3321,10 +3309,10 @@
         <v>19</v>
       </c>
       <c r="L43">
-        <v>4831</v>
+        <v>6026</v>
       </c>
       <c r="M43" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>19</v>
@@ -3339,18 +3327,18 @@
         <v>19</v>
       </c>
       <c r="R43" s="3">
-        <v>4697</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>21</v>
@@ -3377,10 +3365,10 @@
         <v>19</v>
       </c>
       <c r="L44">
-        <v>6026</v>
+        <v>3424</v>
       </c>
       <c r="M44" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>19</v>
@@ -3395,18 +3383,18 @@
         <v>19</v>
       </c>
       <c r="R44" s="3">
-        <v>4356</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B45" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>21</v>
@@ -3433,10 +3421,10 @@
         <v>19</v>
       </c>
       <c r="L45">
-        <v>3424</v>
+        <v>6006</v>
       </c>
       <c r="M45" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>19</v>
@@ -3451,18 +3439,18 @@
         <v>19</v>
       </c>
       <c r="R45" s="3">
-        <v>2547</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>21</v>
@@ -3489,10 +3477,10 @@
         <v>19</v>
       </c>
       <c r="L46">
-        <v>6006</v>
+        <v>4969</v>
       </c>
       <c r="M46" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>19</v>
@@ -3507,62 +3495,6 @@
         <v>19</v>
       </c>
       <c r="R46" s="3">
-        <v>5719</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L47">
-        <v>4969</v>
-      </c>
-      <c r="M47" s="2">
-        <v>46</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R47" s="3">
         <v>4500</v>
       </c>
     </row>

--- a/PaperRevisionSept2023/MetadataIntegrationTreg.xlsx
+++ b/PaperRevisionSept2023/MetadataIntegrationTreg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonepuccio/Documents/GitHub/SP039_GBMintegration/PaperRevisionSept2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D9AE6-690A-734C-B0B4-394937402615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744CFE62-F338-DC41-9758-B6A84CAB1023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{9291073F-D2C9-4C4E-A581-022FD49D0626}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{9291073F-D2C9-4C4E-A581-022FD49D0626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="155">
   <si>
     <t>SampleID</t>
   </si>
@@ -917,10 +917,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1097,8 +1101,8 @@
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
+      <c r="C4" s="2">
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
